--- a/biology/Botanique/Ébrancheuse/Ébrancheuse.xlsx
+++ b/biology/Botanique/Ébrancheuse/Ébrancheuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89brancheuse</t>
+          <t>Ébrancheuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Une ébrancheuse est un engin forestier qui a pour fonction d'ébrancher les arbres[1]. Il y a lieu de distinguer:
-ébrancheuse à flèche ou ébrancheuse-écimeuse (en anglais, delimber-topper) – ébrancheuse simple constituée d'une flèche sur laquelle sont montés la tête d'ébranchage et le mécanisme d'alimentation. On distingue ébrancheuse à flèche télescopique et ébrancheuse à flèche coulissante[2].
-ébrancheuse à fléaux (en anglais, chain flail delimber) – ébrancheuse dont le mécanisme d'ébranchage est constitué de fléaux à chaîne, monté éventuellement sur un débardeur qui se déplace sur une pile d'arbres et les ébranche en un ou deux passages. Dans l'ébrancheuse à fléaux stationnaire, les fléaux à chaîne sont disposés de part et d'autre d'une plate-forme alimentée par une chargeuse hydraulique, elle peut également servir à écorcer et pourrait être désignée sous le nom d'« ébrancheuse-écorceuse »[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Une ébrancheuse est un engin forestier qui a pour fonction d'ébrancher les arbres. Il y a lieu de distinguer:
+ébrancheuse à flèche ou ébrancheuse-écimeuse (en anglais, delimber-topper) – ébrancheuse simple constituée d'une flèche sur laquelle sont montés la tête d'ébranchage et le mécanisme d'alimentation. On distingue ébrancheuse à flèche télescopique et ébrancheuse à flèche coulissante.
+ébrancheuse à fléaux (en anglais, chain flail delimber) – ébrancheuse dont le mécanisme d'ébranchage est constitué de fléaux à chaîne, monté éventuellement sur un débardeur qui se déplace sur une pile d'arbres et les ébranche en un ou deux passages. Dans l'ébrancheuse à fléaux stationnaire, les fléaux à chaîne sont disposés de part et d'autre d'une plate-forme alimentée par une chargeuse hydraulique, elle peut également servir à écorcer et pourrait être désignée sous le nom d'« ébrancheuse-écorceuse ».
 etc.</t>
         </is>
       </c>
